--- a/data/pca/factorExposure/factorExposure_2016-12-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01318498285635224</v>
+        <v>-0.01338108586754989</v>
       </c>
       <c r="C2">
-        <v>0.0443718269679848</v>
+        <v>0.04186160161012476</v>
       </c>
       <c r="D2">
-        <v>-0.02198696588747834</v>
+        <v>-0.0612524945534875</v>
       </c>
       <c r="E2">
-        <v>0.0489964659731501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.01005979367974147</v>
+      </c>
+      <c r="F2">
+        <v>0.08624723498921846</v>
+      </c>
+      <c r="G2">
+        <v>-0.05556534217397727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06013965793597664</v>
+        <v>-0.03648658847685157</v>
       </c>
       <c r="C3">
-        <v>0.1037815482654687</v>
+        <v>0.08846228286626423</v>
       </c>
       <c r="D3">
-        <v>-0.03832935878599703</v>
+        <v>-0.1021496096237341</v>
       </c>
       <c r="E3">
-        <v>0.02177125118948775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.02606207677328169</v>
+      </c>
+      <c r="F3">
+        <v>0.06260052241810272</v>
+      </c>
+      <c r="G3">
+        <v>-0.08944502345135236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0626199685576405</v>
+        <v>-0.05579529215284531</v>
       </c>
       <c r="C4">
-        <v>0.06371017207339065</v>
+        <v>0.05984227349692846</v>
       </c>
       <c r="D4">
-        <v>-0.00317570027026289</v>
+        <v>-0.0570608942616746</v>
       </c>
       <c r="E4">
-        <v>0.02136178724291987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.003938088593325124</v>
+      </c>
+      <c r="F4">
+        <v>0.0583656660855602</v>
+      </c>
+      <c r="G4">
+        <v>-0.07919073857631174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0268298432943885</v>
+        <v>-0.03489917071172519</v>
       </c>
       <c r="C6">
-        <v>0.05320357555343459</v>
+        <v>0.03834054805336952</v>
       </c>
       <c r="D6">
-        <v>-0.007106566814995724</v>
+        <v>-0.06421825071565758</v>
       </c>
       <c r="E6">
-        <v>0.01132089967157348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01133380200755014</v>
+      </c>
+      <c r="F6">
+        <v>0.0478158710919498</v>
+      </c>
+      <c r="G6">
+        <v>-0.0754807412016167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.019126610779778</v>
+        <v>-0.02072626559475048</v>
       </c>
       <c r="C7">
-        <v>0.04486086852677852</v>
+        <v>0.03578096966792149</v>
       </c>
       <c r="D7">
-        <v>0.01025972004280144</v>
+        <v>-0.03196520775319235</v>
       </c>
       <c r="E7">
-        <v>0.01933289795885602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.004335286145699334</v>
+      </c>
+      <c r="F7">
+        <v>0.07311349717162895</v>
+      </c>
+      <c r="G7">
+        <v>-0.09764386870416726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0004078555246107635</v>
+        <v>-0.005218898196215792</v>
       </c>
       <c r="C8">
-        <v>0.009139534547611301</v>
+        <v>0.01840968424804414</v>
       </c>
       <c r="D8">
-        <v>-0.01835744982065757</v>
+        <v>-0.03719828594597203</v>
       </c>
       <c r="E8">
-        <v>0.006375589102487205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.004626528444176925</v>
+      </c>
+      <c r="F8">
+        <v>0.03120908705343452</v>
+      </c>
+      <c r="G8">
+        <v>-0.05956578241539601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02763400736748864</v>
+        <v>-0.0346729032753111</v>
       </c>
       <c r="C9">
-        <v>0.042691965197812</v>
+        <v>0.04557489325013336</v>
       </c>
       <c r="D9">
-        <v>0.003822168867617131</v>
+        <v>-0.04102865055523606</v>
       </c>
       <c r="E9">
-        <v>0.01864054210452048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.001155606264617649</v>
+      </c>
+      <c r="F9">
+        <v>0.05959981346701362</v>
+      </c>
+      <c r="G9">
+        <v>-0.08116919817858119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0749685606167789</v>
+        <v>-0.09178568713036475</v>
       </c>
       <c r="C10">
-        <v>-0.1990128696072889</v>
+        <v>-0.1961018662704653</v>
       </c>
       <c r="D10">
-        <v>-0.02008567551153133</v>
+        <v>-0.01415089770241184</v>
       </c>
       <c r="E10">
-        <v>0.01368474023384043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02793030277201597</v>
+      </c>
+      <c r="F10">
+        <v>0.03258411493997985</v>
+      </c>
+      <c r="G10">
+        <v>-0.04094033878578228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03965713095892201</v>
+        <v>-0.03650446066123068</v>
       </c>
       <c r="C11">
-        <v>0.05225953133190944</v>
+        <v>0.05040396439454688</v>
       </c>
       <c r="D11">
-        <v>0.004983788747282659</v>
+        <v>-0.02896497101047777</v>
       </c>
       <c r="E11">
-        <v>0.006783440407074881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01617790118782835</v>
+      </c>
+      <c r="F11">
+        <v>0.03376380867309836</v>
+      </c>
+      <c r="G11">
+        <v>-0.06459263572035621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03488599823921057</v>
+        <v>-0.03691479480431356</v>
       </c>
       <c r="C12">
-        <v>0.04330430295624261</v>
+        <v>0.0462811961376679</v>
       </c>
       <c r="D12">
-        <v>0.007957836523044843</v>
+        <v>-0.0199123166287211</v>
       </c>
       <c r="E12">
-        <v>0.006031642090889354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.006424689321762183</v>
+      </c>
+      <c r="F12">
+        <v>0.03636700893511118</v>
+      </c>
+      <c r="G12">
+        <v>-0.06402178177343334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.006673856911149598</v>
+        <v>-0.01060620837055833</v>
       </c>
       <c r="C13">
-        <v>0.03875034541133229</v>
+        <v>0.03775380833528139</v>
       </c>
       <c r="D13">
-        <v>-0.01826054854021743</v>
+        <v>-0.06828903087503355</v>
       </c>
       <c r="E13">
-        <v>0.0295785609005962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01770993083402158</v>
+      </c>
+      <c r="F13">
+        <v>0.08448578269554376</v>
+      </c>
+      <c r="G13">
+        <v>-0.1059532873426999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006895906347607094</v>
+        <v>-0.00860040858408046</v>
       </c>
       <c r="C14">
-        <v>0.02754747926939488</v>
+        <v>0.02769705979734812</v>
       </c>
       <c r="D14">
-        <v>0.01051831678979732</v>
+        <v>-0.02578616870964755</v>
       </c>
       <c r="E14">
-        <v>0.01796227670658902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.003479497439893352</v>
+      </c>
+      <c r="F14">
+        <v>0.06954279010921302</v>
+      </c>
+      <c r="G14">
+        <v>-0.08924918208761254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03432776582205212</v>
+        <v>-0.03513522347578731</v>
       </c>
       <c r="C16">
-        <v>0.03928374723538565</v>
+        <v>0.04346509183366899</v>
       </c>
       <c r="D16">
-        <v>0.0004696093340369196</v>
+        <v>-0.02514943196622831</v>
       </c>
       <c r="E16">
-        <v>0.006902777383648574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0006149804260490277</v>
+      </c>
+      <c r="F16">
+        <v>0.04080096859538959</v>
+      </c>
+      <c r="G16">
+        <v>-0.06640219957399819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03191258597118522</v>
+        <v>-0.01842875624691296</v>
       </c>
       <c r="C19">
-        <v>0.05637788010541005</v>
+        <v>0.0479909234603559</v>
       </c>
       <c r="D19">
-        <v>-0.0385016873698263</v>
+        <v>-0.1031715597990535</v>
       </c>
       <c r="E19">
-        <v>0.02440015026213299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01992691966420255</v>
+      </c>
+      <c r="F19">
+        <v>0.07907364529065554</v>
+      </c>
+      <c r="G19">
+        <v>-0.1053846520280985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01305755228653269</v>
+        <v>-0.0160966830730751</v>
       </c>
       <c r="C20">
-        <v>0.04356260964618138</v>
+        <v>0.03692452596785969</v>
       </c>
       <c r="D20">
-        <v>-0.02230851723710192</v>
+        <v>-0.04951689479789882</v>
       </c>
       <c r="E20">
-        <v>0.02013263576405943</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02783775210549368</v>
+      </c>
+      <c r="F20">
+        <v>0.06672826923886943</v>
+      </c>
+      <c r="G20">
+        <v>-0.08290391645197806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.00627804236021825</v>
+        <v>-0.007833711174080479</v>
       </c>
       <c r="C21">
-        <v>0.03583906647955325</v>
+        <v>0.03666923816744712</v>
       </c>
       <c r="D21">
-        <v>-0.03040253682013685</v>
+        <v>-0.06938983890963767</v>
       </c>
       <c r="E21">
-        <v>0.03281106594556618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.01892420942478837</v>
+      </c>
+      <c r="F21">
+        <v>0.09614048159732351</v>
+      </c>
+      <c r="G21">
+        <v>-0.1180468236524367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.00273779854662361</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01393566923205412</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.02482577311447988</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0009954829029506212</v>
+      </c>
+      <c r="F22">
+        <v>0.003202965939789921</v>
+      </c>
+      <c r="G22">
+        <v>-0.01972202926493662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.002758412861089037</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01388418436808408</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.02461661138086556</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0006724908119049685</v>
+      </c>
+      <c r="F23">
+        <v>0.003167730200032669</v>
+      </c>
+      <c r="G23">
+        <v>-0.01953764730717995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02787412252711789</v>
+        <v>-0.03117537303387145</v>
       </c>
       <c r="C24">
-        <v>0.04633422060639515</v>
+        <v>0.04962213279751236</v>
       </c>
       <c r="D24">
-        <v>0.008931892246940161</v>
+        <v>-0.02438008909343219</v>
       </c>
       <c r="E24">
-        <v>0.01429621482791315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.008585536116254995</v>
+      </c>
+      <c r="F24">
+        <v>0.04626935345059513</v>
+      </c>
+      <c r="G24">
+        <v>-0.06514952207787097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04542452393942205</v>
+        <v>-0.04324220044294425</v>
       </c>
       <c r="C25">
-        <v>0.05340932157444433</v>
+        <v>0.05578594196076194</v>
       </c>
       <c r="D25">
-        <v>0.01938093719953811</v>
+        <v>-0.01815159674432538</v>
       </c>
       <c r="E25">
-        <v>0.01376244894906351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.00869644749534027</v>
+      </c>
+      <c r="F25">
+        <v>0.0496826756834744</v>
+      </c>
+      <c r="G25">
+        <v>-0.07565291626872321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.008442676734489481</v>
+        <v>-0.01469586186071124</v>
       </c>
       <c r="C26">
-        <v>0.01072504286457539</v>
+        <v>0.01100469828493161</v>
       </c>
       <c r="D26">
-        <v>-0.003505364582267006</v>
+        <v>-0.0219275603350373</v>
       </c>
       <c r="E26">
-        <v>0.03434430535140579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002974275466685965</v>
+      </c>
+      <c r="F26">
+        <v>0.0687936364109286</v>
+      </c>
+      <c r="G26">
+        <v>-0.0539524518509876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09057161532946671</v>
+        <v>-0.122973371038257</v>
       </c>
       <c r="C28">
-        <v>-0.2276447711450978</v>
+        <v>-0.246169559844861</v>
       </c>
       <c r="D28">
-        <v>-0.01162998047643822</v>
+        <v>0.002684346213582198</v>
       </c>
       <c r="E28">
-        <v>0.02105347272558887</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.03009327890195891</v>
+      </c>
+      <c r="F28">
+        <v>0.04248136840551218</v>
+      </c>
+      <c r="G28">
+        <v>-0.04244050717798032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.0116467282656461</v>
+        <v>-0.007956279087753015</v>
       </c>
       <c r="C29">
-        <v>0.02010706916625971</v>
+        <v>0.02321964725636499</v>
       </c>
       <c r="D29">
-        <v>0.01025730353441468</v>
+        <v>-0.01627703247590621</v>
       </c>
       <c r="E29">
-        <v>0.01081803371634918</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007603723699802344</v>
+      </c>
+      <c r="F29">
+        <v>0.05957270328546908</v>
+      </c>
+      <c r="G29">
+        <v>-0.08597835327549717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03837807230783537</v>
+        <v>-0.03907442052300186</v>
       </c>
       <c r="C30">
-        <v>0.07269060455275574</v>
+        <v>0.0641269422848675</v>
       </c>
       <c r="D30">
-        <v>0.00185417710116856</v>
+        <v>-0.09104021830240291</v>
       </c>
       <c r="E30">
-        <v>0.04105731895787046</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.0212874667482935</v>
+      </c>
+      <c r="F30">
+        <v>0.07959881848631535</v>
+      </c>
+      <c r="G30">
+        <v>-0.08225381850271858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04467997291792682</v>
+        <v>-0.05643390099184618</v>
       </c>
       <c r="C31">
-        <v>0.02652287000304836</v>
+        <v>0.04200113750667632</v>
       </c>
       <c r="D31">
-        <v>0.01222836806560611</v>
+        <v>-0.003313887008347498</v>
       </c>
       <c r="E31">
-        <v>0.02044317979396588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02991622212660607</v>
+      </c>
+      <c r="F31">
+        <v>0.06522045234376826</v>
+      </c>
+      <c r="G31">
+        <v>-0.07614301345984339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007445905398769834</v>
+        <v>-0.002585993131790386</v>
       </c>
       <c r="C32">
-        <v>0.03410343790942766</v>
+        <v>0.02380661738129612</v>
       </c>
       <c r="D32">
-        <v>-0.01245697509480629</v>
+        <v>-0.04640082994361906</v>
       </c>
       <c r="E32">
-        <v>0.001937808932015224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01128645178970058</v>
+      </c>
+      <c r="F32">
+        <v>0.03016514599431901</v>
+      </c>
+      <c r="G32">
+        <v>-0.06989199977150429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02850112191563086</v>
+        <v>-0.02631161629867925</v>
       </c>
       <c r="C33">
-        <v>0.0558680752026106</v>
+        <v>0.04651322948878087</v>
       </c>
       <c r="D33">
-        <v>-0.008762284462344297</v>
+        <v>-0.07465036334610958</v>
       </c>
       <c r="E33">
-        <v>0.02771439222396021</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.0007053850337263901</v>
+      </c>
+      <c r="F33">
+        <v>0.0868800585401885</v>
+      </c>
+      <c r="G33">
+        <v>-0.1285361991082554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05326370977035783</v>
+        <v>-0.04260699945402031</v>
       </c>
       <c r="C34">
-        <v>0.05032872109190969</v>
+        <v>0.06014854571616744</v>
       </c>
       <c r="D34">
-        <v>0.01408519833287379</v>
+        <v>-0.02278299893315901</v>
       </c>
       <c r="E34">
-        <v>-0.0004432312206321623</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02226484817163072</v>
+      </c>
+      <c r="F34">
+        <v>0.02908583979579027</v>
+      </c>
+      <c r="G34">
+        <v>-0.07183957071133745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008337403299975316</v>
+        <v>-0.01496384604000543</v>
       </c>
       <c r="C36">
-        <v>0.004920733642020417</v>
+        <v>0.006551614742679841</v>
       </c>
       <c r="D36">
-        <v>0.004242791047741734</v>
+        <v>-0.02397976092559677</v>
       </c>
       <c r="E36">
-        <v>0.01636910837116884</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.007977827683543902</v>
+      </c>
+      <c r="F36">
+        <v>0.0597749441416117</v>
+      </c>
+      <c r="G36">
+        <v>-0.07716291901315304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03693095350667311</v>
+        <v>-0.03126258059642487</v>
       </c>
       <c r="C38">
-        <v>0.01983862630443201</v>
+        <v>0.02228295300393169</v>
       </c>
       <c r="D38">
-        <v>0.006513707395110245</v>
+        <v>-0.02199489907537493</v>
       </c>
       <c r="E38">
-        <v>0.008829163405490075</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01196612273338818</v>
+      </c>
+      <c r="F38">
+        <v>0.04715058784840009</v>
+      </c>
+      <c r="G38">
+        <v>-0.07768629599106137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03694630692610891</v>
+        <v>-0.03755690128621741</v>
       </c>
       <c r="C39">
-        <v>0.08377528466230391</v>
+        <v>0.07478653189743827</v>
       </c>
       <c r="D39">
-        <v>-0.003635329507431493</v>
+        <v>-0.0465213720948953</v>
       </c>
       <c r="E39">
-        <v>0.009640975595675883</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01728807454043606</v>
+      </c>
+      <c r="F39">
+        <v>0.04618126704483299</v>
+      </c>
+      <c r="G39">
+        <v>-0.07149461546239835</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01581278284036002</v>
+        <v>-0.01655604825567787</v>
       </c>
       <c r="C40">
-        <v>0.02781816756345878</v>
+        <v>0.0364828243406608</v>
       </c>
       <c r="D40">
-        <v>-0.01889124132171308</v>
+        <v>-0.03714817113440206</v>
       </c>
       <c r="E40">
-        <v>0.01638974357828042</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02766204307300599</v>
+      </c>
+      <c r="F40">
+        <v>0.06917431852798206</v>
+      </c>
+      <c r="G40">
+        <v>-0.1031338797358227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01061518521514426</v>
+        <v>-0.01819828247243061</v>
       </c>
       <c r="C41">
-        <v>-0.0007777595868284726</v>
+        <v>-0.001690814235876492</v>
       </c>
       <c r="D41">
-        <v>0.005839659178743865</v>
+        <v>-0.01923627845305455</v>
       </c>
       <c r="E41">
-        <v>0.01398170429335031</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01239545810501133</v>
+      </c>
+      <c r="F41">
+        <v>0.05422871811710551</v>
+      </c>
+      <c r="G41">
+        <v>-0.0694953082299066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.004193493149801133</v>
+        <v>-0.003467706648641599</v>
       </c>
       <c r="C42">
-        <v>0.05092339597809251</v>
+        <v>0.02729394699488575</v>
       </c>
       <c r="D42">
-        <v>-0.01908962166013582</v>
+        <v>-0.004803330850237742</v>
       </c>
       <c r="E42">
-        <v>0.1213668126985202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01809177466405686</v>
+      </c>
+      <c r="F42">
+        <v>0.09953398498094918</v>
+      </c>
+      <c r="G42">
+        <v>0.1055116381804336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02999301719521673</v>
+        <v>-0.03261731971206649</v>
       </c>
       <c r="C43">
-        <v>0.00899238832052213</v>
+        <v>0.01104494078454675</v>
       </c>
       <c r="D43">
-        <v>0.004644856096547747</v>
+        <v>-0.0380983639341711</v>
       </c>
       <c r="E43">
-        <v>0.01096031523390764</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.00965941673135242</v>
+      </c>
+      <c r="F43">
+        <v>0.06134891602826758</v>
+      </c>
+      <c r="G43">
+        <v>-0.0987719774162889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02134631521019245</v>
+        <v>-0.01465600788130962</v>
       </c>
       <c r="C44">
-        <v>0.05422160410732069</v>
+        <v>0.05089767846907287</v>
       </c>
       <c r="D44">
-        <v>-0.007124850916788934</v>
+        <v>-0.04400535315957975</v>
       </c>
       <c r="E44">
-        <v>0.01476604245164621</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01804081075263602</v>
+      </c>
+      <c r="F44">
+        <v>0.06388531762337822</v>
+      </c>
+      <c r="G44">
+        <v>-0.09488433945755136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0005897106784652797</v>
+        <v>-0.01009083011289335</v>
       </c>
       <c r="C46">
-        <v>0.01257205199673749</v>
+        <v>0.01812679445241647</v>
       </c>
       <c r="D46">
-        <v>0.01983491901524104</v>
+        <v>-0.009548206754026732</v>
       </c>
       <c r="E46">
-        <v>0.0181421100005682</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.01270311706687258</v>
+      </c>
+      <c r="F46">
+        <v>0.07235448586122524</v>
+      </c>
+      <c r="G46">
+        <v>-0.08791607254798342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07597675645060598</v>
+        <v>-0.08609903827253494</v>
       </c>
       <c r="C47">
-        <v>0.06355373397120681</v>
+        <v>0.07180237343375608</v>
       </c>
       <c r="D47">
-        <v>0.008515970278444305</v>
+        <v>0.006848088285779644</v>
       </c>
       <c r="E47">
-        <v>0.004233602295727674</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.03924026754488594</v>
+      </c>
+      <c r="F47">
+        <v>0.04867555369447076</v>
+      </c>
+      <c r="G47">
+        <v>-0.08104869886059117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01718864364265089</v>
+        <v>-0.01695836665358842</v>
       </c>
       <c r="C48">
-        <v>0.007231018771101054</v>
+        <v>0.01224636375037545</v>
       </c>
       <c r="D48">
-        <v>0.008222745177833722</v>
+        <v>-0.01681115978103364</v>
       </c>
       <c r="E48">
-        <v>0.001660333818070766</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01863669761070347</v>
+      </c>
+      <c r="F48">
+        <v>0.0532375667203298</v>
+      </c>
+      <c r="G48">
+        <v>-0.09319943189892894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08080873223800739</v>
+        <v>-0.07865102070337537</v>
       </c>
       <c r="C50">
-        <v>0.0593834044851916</v>
+        <v>0.06809815362322627</v>
       </c>
       <c r="D50">
-        <v>0.01533452863881041</v>
+        <v>0.0001426577922743501</v>
       </c>
       <c r="E50">
-        <v>0.004147061773875688</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.03895094288859665</v>
+      </c>
+      <c r="F50">
+        <v>0.05511687945772098</v>
+      </c>
+      <c r="G50">
+        <v>-0.09268355568968187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0201275509707912</v>
+        <v>-0.01244263868658709</v>
       </c>
       <c r="C51">
-        <v>0.03873435576645734</v>
+        <v>0.03202048511326742</v>
       </c>
       <c r="D51">
-        <v>0.003046959655241146</v>
+        <v>-0.04320303478926733</v>
       </c>
       <c r="E51">
-        <v>0.01711759009945945</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01015115477241138</v>
+      </c>
+      <c r="F51">
+        <v>0.06025442747338239</v>
+      </c>
+      <c r="G51">
+        <v>-0.08156652573686873</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1020791797882365</v>
+        <v>-0.08712290329125745</v>
       </c>
       <c r="C53">
-        <v>0.0697863249576126</v>
+        <v>0.08521705042019023</v>
       </c>
       <c r="D53">
-        <v>0.03420986077072008</v>
+        <v>0.02797141916582183</v>
       </c>
       <c r="E53">
-        <v>-0.006629890133982144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04257857516658776</v>
+      </c>
+      <c r="F53">
+        <v>0.03909752657655649</v>
+      </c>
+      <c r="G53">
+        <v>-0.09241278664845098</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02819331164959445</v>
+        <v>-0.03216856773533532</v>
       </c>
       <c r="C54">
-        <v>0.000282145207816438</v>
+        <v>0.01819222821099211</v>
       </c>
       <c r="D54">
-        <v>-0.004176211299271869</v>
+        <v>-0.0290117483455498</v>
       </c>
       <c r="E54">
-        <v>0.002188532357029563</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01164464316830656</v>
+      </c>
+      <c r="F54">
+        <v>0.05523069341750288</v>
+      </c>
+      <c r="G54">
+        <v>-0.1004168710893829</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0783650564338028</v>
+        <v>-0.08193637754281873</v>
       </c>
       <c r="C55">
-        <v>0.06140510881704126</v>
+        <v>0.06916522480423126</v>
       </c>
       <c r="D55">
-        <v>0.02769365406343697</v>
+        <v>0.0328302304100728</v>
       </c>
       <c r="E55">
-        <v>0.001500648790851888</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.04489420433815924</v>
+      </c>
+      <c r="F55">
+        <v>0.03676570549218656</v>
+      </c>
+      <c r="G55">
+        <v>-0.06437451566541041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1565829665831196</v>
+        <v>-0.144376375019501</v>
       </c>
       <c r="C56">
-        <v>0.08863825490468179</v>
+        <v>0.1045690410434417</v>
       </c>
       <c r="D56">
-        <v>0.03174473954799507</v>
+        <v>0.04184257664511878</v>
       </c>
       <c r="E56">
-        <v>-0.02949753118192237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.05487979581359671</v>
+      </c>
+      <c r="F56">
+        <v>0.006712654495087133</v>
+      </c>
+      <c r="G56">
+        <v>-0.07241267554661489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.005468502250101304</v>
+        <v>-0.002291487823608175</v>
       </c>
       <c r="C57">
-        <v>0.008388968807542514</v>
+        <v>0.004399419726929971</v>
       </c>
       <c r="D57">
-        <v>-0.03123293695736388</v>
+        <v>-0.0266622871164729</v>
       </c>
       <c r="E57">
-        <v>0.007467992045487774</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.001179984358964839</v>
+      </c>
+      <c r="F57">
+        <v>0.005769762516585014</v>
+      </c>
+      <c r="G57">
+        <v>-0.00803208074085688</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0557362292655527</v>
+        <v>-0.03629031309399403</v>
       </c>
       <c r="C58">
-        <v>0.06442074603827144</v>
+        <v>0.03079977809275851</v>
       </c>
       <c r="D58">
-        <v>-0.9655669448946501</v>
+        <v>-0.6986001200672958</v>
       </c>
       <c r="E58">
-        <v>-0.04822502499404529</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.6142539965491465</v>
+      </c>
+      <c r="F58">
+        <v>-0.1703236829686382</v>
+      </c>
+      <c r="G58">
+        <v>0.2400130546033186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1385011030529846</v>
+        <v>-0.1465765376517915</v>
       </c>
       <c r="C59">
-        <v>-0.2258429023189279</v>
+        <v>-0.2055482116852657</v>
       </c>
       <c r="D59">
-        <v>-0.0131791998189823</v>
+        <v>-0.02218903541252648</v>
       </c>
       <c r="E59">
-        <v>0.004825687580193259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01151688866698418</v>
+      </c>
+      <c r="F59">
+        <v>0.01738463253615212</v>
+      </c>
+      <c r="G59">
+        <v>-0.0340739779192207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3116066764938339</v>
+        <v>-0.2871775224689845</v>
       </c>
       <c r="C60">
-        <v>0.07404440403844341</v>
+        <v>0.09089384410373524</v>
       </c>
       <c r="D60">
-        <v>-0.02577430992284032</v>
+        <v>-0.1391116387075132</v>
       </c>
       <c r="E60">
-        <v>0.007043186749656913</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2880148855342576</v>
+      </c>
+      <c r="F60">
+        <v>-0.1185122175644235</v>
+      </c>
+      <c r="G60">
+        <v>0.1052614380978994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03332228968222357</v>
+        <v>-0.03930536277402218</v>
       </c>
       <c r="C61">
-        <v>0.06290005307792788</v>
+        <v>0.06240558890591753</v>
       </c>
       <c r="D61">
-        <v>-0.00463671387880598</v>
+        <v>-0.04078128175856207</v>
       </c>
       <c r="E61">
-        <v>0.003024159385629006</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.008472325246666626</v>
+      </c>
+      <c r="F61">
+        <v>0.0405988369707713</v>
+      </c>
+      <c r="G61">
+        <v>-0.07867610236531133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01461611020178196</v>
+        <v>-0.01525951739376253</v>
       </c>
       <c r="C63">
-        <v>0.02747452766632515</v>
+        <v>0.02675370551376947</v>
       </c>
       <c r="D63">
-        <v>0.01657499348504228</v>
+        <v>-0.01658482432909947</v>
       </c>
       <c r="E63">
-        <v>0.01564403478744564</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.009262136430728365</v>
+      </c>
+      <c r="F63">
+        <v>0.05454035803672682</v>
+      </c>
+      <c r="G63">
+        <v>-0.07545694887594082</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04746461758196747</v>
+        <v>-0.05261149165268619</v>
       </c>
       <c r="C64">
-        <v>0.0286171715695671</v>
+        <v>0.04638856663063005</v>
       </c>
       <c r="D64">
-        <v>0.01549875144591326</v>
+        <v>-0.01034081979226647</v>
       </c>
       <c r="E64">
-        <v>0.01388792029750935</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.005396646859218898</v>
+      </c>
+      <c r="F64">
+        <v>0.05143526966269527</v>
+      </c>
+      <c r="G64">
+        <v>-0.07581017294307474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08673864306641997</v>
+        <v>-0.07195375120488644</v>
       </c>
       <c r="C65">
-        <v>0.06159015527344677</v>
+        <v>0.04406055166799789</v>
       </c>
       <c r="D65">
-        <v>-0.009711852666593782</v>
+        <v>-0.06780300973489581</v>
       </c>
       <c r="E65">
-        <v>0.01841610821429082</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.005732242975471924</v>
+      </c>
+      <c r="F65">
+        <v>0.0296065445783949</v>
+      </c>
+      <c r="G65">
+        <v>-0.03038268757441056</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06185437752451935</v>
+        <v>-0.05009430812465129</v>
       </c>
       <c r="C66">
-        <v>0.1199757913435945</v>
+        <v>0.09868634606952978</v>
       </c>
       <c r="D66">
-        <v>-0.01086035505729081</v>
+        <v>-0.0701557174238545</v>
       </c>
       <c r="E66">
-        <v>0.01539812895839997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02188618127795759</v>
+      </c>
+      <c r="F66">
+        <v>0.04784745239891434</v>
+      </c>
+      <c r="G66">
+        <v>-0.07638601508790326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06363181408679491</v>
+        <v>-0.05376220451007772</v>
       </c>
       <c r="C67">
-        <v>0.02175080918911902</v>
+        <v>0.02769296912238299</v>
       </c>
       <c r="D67">
-        <v>0.0117782731570943</v>
+        <v>-0.007859687063382477</v>
       </c>
       <c r="E67">
-        <v>0.007903944010095547</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.006677900066003653</v>
+      </c>
+      <c r="F67">
+        <v>0.03806459107742562</v>
+      </c>
+      <c r="G67">
+        <v>-0.06719762001014554</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1066234796953678</v>
+        <v>-0.1483686253561331</v>
       </c>
       <c r="C68">
-        <v>-0.2881861495939822</v>
+        <v>-0.2696092880032177</v>
       </c>
       <c r="D68">
-        <v>-0.02419461566023463</v>
+        <v>0.00606626791594832</v>
       </c>
       <c r="E68">
-        <v>0.02981217682698258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.04018816048595225</v>
+      </c>
+      <c r="F68">
+        <v>0.04111937058911157</v>
+      </c>
+      <c r="G68">
+        <v>-0.006531514333062053</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08470151810733119</v>
+        <v>-0.08504527778544223</v>
       </c>
       <c r="C69">
-        <v>0.05799172098925712</v>
+        <v>0.07562764832858415</v>
       </c>
       <c r="D69">
-        <v>0.02977961245571158</v>
+        <v>0.01094672872823751</v>
       </c>
       <c r="E69">
-        <v>0.004113681488348732</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0141306241007547</v>
+      </c>
+      <c r="F69">
+        <v>0.05169930249923958</v>
+      </c>
+      <c r="G69">
+        <v>-0.08824251211725452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,231 +2304,315 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1155218796226104</v>
+        <v>-0.1367296487643843</v>
       </c>
       <c r="C71">
-        <v>-0.2398007715239273</v>
+        <v>-0.2387025920701411</v>
       </c>
       <c r="D71">
-        <v>-0.02564867764770938</v>
+        <v>-0.02258408861036849</v>
       </c>
       <c r="E71">
-        <v>0.02392259314520507</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03740688229763656</v>
+      </c>
+      <c r="F71">
+        <v>0.04647649010862255</v>
+      </c>
+      <c r="G71">
+        <v>-0.05324337479710264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0765230131811641</v>
+        <v>-0.08762253835304659</v>
       </c>
       <c r="C72">
-        <v>0.05818560086538063</v>
+        <v>0.05763068557058581</v>
       </c>
       <c r="D72">
-        <v>0.04916186883445925</v>
+        <v>-0.007639557755744277</v>
       </c>
       <c r="E72">
-        <v>0.01382068721361464</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.02761535913619994</v>
+      </c>
+      <c r="F72">
+        <v>0.04465294805096743</v>
+      </c>
+      <c r="G72">
+        <v>-0.06739138062378165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4460514633444104</v>
+        <v>-0.3736300939969785</v>
       </c>
       <c r="C73">
-        <v>0.07471705742990223</v>
+        <v>0.07630430344935195</v>
       </c>
       <c r="D73">
-        <v>-0.04068843912240969</v>
+        <v>-0.2967171009264785</v>
       </c>
       <c r="E73">
-        <v>0.06903195604764314</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.514022470681294</v>
+      </c>
+      <c r="F73">
+        <v>-0.198328090339475</v>
+      </c>
+      <c r="G73">
+        <v>0.2661860928556746</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1217807627228563</v>
+        <v>-0.1103189500187287</v>
       </c>
       <c r="C74">
-        <v>0.1127632728234858</v>
+        <v>0.1033828493108435</v>
       </c>
       <c r="D74">
-        <v>0.0237188462747127</v>
+        <v>0.01427441356156081</v>
       </c>
       <c r="E74">
-        <v>-0.009877097049865556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.05882579721228801</v>
+      </c>
+      <c r="F74">
+        <v>0.03120274311707781</v>
+      </c>
+      <c r="G74">
+        <v>-0.07927317548065214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.270727583143096</v>
+        <v>-0.2557104141338014</v>
       </c>
       <c r="C75">
-        <v>0.1205073859020132</v>
+        <v>0.1410530693951247</v>
       </c>
       <c r="D75">
-        <v>0.05354603052958003</v>
+        <v>0.1073709556671344</v>
       </c>
       <c r="E75">
-        <v>-0.0544181318803757</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1231131647324055</v>
+      </c>
+      <c r="F75">
+        <v>-0.02150223741518323</v>
+      </c>
+      <c r="G75">
+        <v>-0.05619634920290859</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1239038146973544</v>
+        <v>-0.1242720982262979</v>
       </c>
       <c r="C76">
-        <v>0.1013542763666763</v>
+        <v>0.1046491116398914</v>
       </c>
       <c r="D76">
-        <v>0.03849965701735107</v>
+        <v>0.04544012829655353</v>
       </c>
       <c r="E76">
-        <v>-0.0281644010423323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.07926563761646448</v>
+      </c>
+      <c r="F76">
+        <v>0.01559469368931002</v>
+      </c>
+      <c r="G76">
+        <v>-0.08399788658166325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07269065216209972</v>
+        <v>-0.0652112651613935</v>
       </c>
       <c r="C77">
-        <v>0.05616044043643533</v>
+        <v>0.0628092753591175</v>
       </c>
       <c r="D77">
-        <v>-0.02723187361528169</v>
+        <v>-0.05945175214797564</v>
       </c>
       <c r="E77">
-        <v>0.01810426857409748</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.0307761941494444</v>
+      </c>
+      <c r="F77">
+        <v>0.05525613594553907</v>
+      </c>
+      <c r="G77">
+        <v>-0.07282006202632954</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04719030819518405</v>
+        <v>-0.04197962063865316</v>
       </c>
       <c r="C78">
-        <v>0.04935892566594368</v>
+        <v>0.05473867550894932</v>
       </c>
       <c r="D78">
-        <v>-0.006953448406724753</v>
+        <v>-0.05740848863998815</v>
       </c>
       <c r="E78">
-        <v>0.001037587539311927</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02285316239560562</v>
+      </c>
+      <c r="F78">
+        <v>0.0348949862997916</v>
+      </c>
+      <c r="G78">
+        <v>-0.09139933456647208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0002374686759549026</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0005385248579605353</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>-0.007378242217451323</v>
       </c>
       <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.002870004433513115</v>
+      </c>
+      <c r="F79">
+        <v>0.004225107115090742</v>
+      </c>
+      <c r="G79">
+        <v>-0.008741891736719706</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05546880284735343</v>
+        <v>-0.04071039717953424</v>
       </c>
       <c r="C80">
-        <v>0.05760939929736523</v>
+        <v>0.0472303694893222</v>
       </c>
       <c r="D80">
-        <v>-0.0152227335264261</v>
+        <v>-0.04242094539127226</v>
       </c>
       <c r="E80">
-        <v>0.02838221530519139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.001994312931124721</v>
+      </c>
+      <c r="F80">
+        <v>0.04162121921429494</v>
+      </c>
+      <c r="G80">
+        <v>-0.01256721111069949</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1411204513988923</v>
+        <v>-0.1420406747163724</v>
       </c>
       <c r="C81">
-        <v>0.07451588868353777</v>
+        <v>0.09124341675340217</v>
       </c>
       <c r="D81">
-        <v>0.03513116613459977</v>
+        <v>0.07458975985997007</v>
       </c>
       <c r="E81">
-        <v>-0.02739543326698854</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.1039760572520434</v>
+      </c>
+      <c r="F81">
+        <v>0.01025596093582216</v>
+      </c>
+      <c r="G81">
+        <v>-0.05216871426858181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.05637879433243174</v>
+        <v>-0.1755457711060469</v>
       </c>
       <c r="C82">
-        <v>0.03945204235926324</v>
+        <v>0.1252948137413478</v>
       </c>
       <c r="D82">
-        <v>0.02174499912297846</v>
+        <v>0.1896296920404606</v>
       </c>
       <c r="E82">
-        <v>-0.001779782795280259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0526757312410352</v>
+      </c>
+      <c r="F82">
+        <v>0.03807805960587445</v>
+      </c>
+      <c r="G82">
+        <v>-0.01887145258729294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02961451998780265</v>
+        <v>-0.02807721487732052</v>
       </c>
       <c r="C83">
-        <v>0.01873257221395319</v>
+        <v>0.03215160981071495</v>
       </c>
       <c r="D83">
-        <v>-0.01745018158347491</v>
+        <v>-0.03419684316120405</v>
       </c>
       <c r="E83">
-        <v>0.01299506164942999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.00993388721275933</v>
+      </c>
+      <c r="F83">
+        <v>0.03108320396753927</v>
+      </c>
+      <c r="G83">
+        <v>-0.04107830750799317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2480866897311187</v>
+        <v>-0.2145383689545988</v>
       </c>
       <c r="C85">
-        <v>0.1193438543529826</v>
+        <v>0.1246792604288173</v>
       </c>
       <c r="D85">
-        <v>0.1148710894110632</v>
+        <v>0.111317727403042</v>
       </c>
       <c r="E85">
-        <v>-0.04896740293876926</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.05426565025029556</v>
+      </c>
+      <c r="F85">
+        <v>-0.03549154332503655</v>
+      </c>
+      <c r="G85">
+        <v>-0.02866136998266984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01158255802490707</v>
+        <v>-0.01192625053302058</v>
       </c>
       <c r="C86">
-        <v>0.02113233940737886</v>
+        <v>0.02428248615945533</v>
       </c>
       <c r="D86">
-        <v>-0.01146093864398624</v>
+        <v>-0.08197505035293613</v>
       </c>
       <c r="E86">
-        <v>0.05505053339633537</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01673478148439989</v>
+      </c>
+      <c r="F86">
+        <v>0.1119869158719811</v>
+      </c>
+      <c r="G86">
+        <v>-0.1166576250262926</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01441646081032846</v>
+        <v>-0.02015748581835125</v>
       </c>
       <c r="C87">
-        <v>0.02246318066090091</v>
+        <v>0.015087231540495</v>
       </c>
       <c r="D87">
-        <v>-0.07885428270811139</v>
+        <v>-0.1004822757569218</v>
       </c>
       <c r="E87">
-        <v>0.01746576729268827</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.03496917876539844</v>
+      </c>
+      <c r="F87">
+        <v>0.05537026759530464</v>
+      </c>
+      <c r="G87">
+        <v>-0.08583962971941807</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09936548529985557</v>
+        <v>-0.09030842183671588</v>
       </c>
       <c r="C88">
-        <v>0.06157725686567146</v>
+        <v>0.06050517551511841</v>
       </c>
       <c r="D88">
-        <v>0.002409319505279168</v>
+        <v>-0.01355079107027552</v>
       </c>
       <c r="E88">
-        <v>0.05593859811216314</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.009700566293084679</v>
+      </c>
+      <c r="F88">
+        <v>0.0993406959647402</v>
+      </c>
+      <c r="G88">
+        <v>-0.04723983850028279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1861116479459619</v>
+        <v>-0.2075710122000531</v>
       </c>
       <c r="C89">
-        <v>-0.380512790934011</v>
+        <v>-0.3715482084872214</v>
       </c>
       <c r="D89">
-        <v>0.0215775643181475</v>
+        <v>0.01966452265113492</v>
       </c>
       <c r="E89">
-        <v>0.025500414485681</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.004203983693981399</v>
+      </c>
+      <c r="F89">
+        <v>0.05881629999766882</v>
+      </c>
+      <c r="G89">
+        <v>-0.04648355154063393</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1693897660124485</v>
+        <v>-0.1978286940742352</v>
       </c>
       <c r="C90">
-        <v>-0.3527681157287378</v>
+        <v>-0.3249684377478473</v>
       </c>
       <c r="D90">
-        <v>-0.01880287187574428</v>
+        <v>0.01420712337031578</v>
       </c>
       <c r="E90">
-        <v>0.02538641345045897</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0543590201860003</v>
+      </c>
+      <c r="F90">
+        <v>0.0475266701291254</v>
+      </c>
+      <c r="G90">
+        <v>-0.03389724601641024</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2108619173252472</v>
+        <v>-0.192082046291185</v>
       </c>
       <c r="C91">
-        <v>0.1088691822218487</v>
+        <v>0.1303633471655901</v>
       </c>
       <c r="D91">
-        <v>0.05073025319351288</v>
+        <v>0.08852088066680867</v>
       </c>
       <c r="E91">
-        <v>-0.02343357530615291</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.1002992666852247</v>
+      </c>
+      <c r="F91">
+        <v>0.01411082794208039</v>
+      </c>
+      <c r="G91">
+        <v>-0.06003137103502251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1748703984540298</v>
+        <v>-0.1800819205716575</v>
       </c>
       <c r="C92">
-        <v>-0.2806914974280393</v>
+        <v>-0.2773612524433859</v>
       </c>
       <c r="D92">
-        <v>-0.007820313863476241</v>
+        <v>-0.003067438117085791</v>
       </c>
       <c r="E92">
-        <v>-0.02384668807534802</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07535283572527271</v>
+      </c>
+      <c r="F92">
+        <v>0.01544231136294453</v>
+      </c>
+      <c r="G92">
+        <v>-0.0844863431481374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1798115168729318</v>
+        <v>-0.2204744366890836</v>
       </c>
       <c r="C93">
-        <v>-0.3323942229670209</v>
+        <v>-0.3200586441735666</v>
       </c>
       <c r="D93">
-        <v>-0.01372593988904221</v>
+        <v>-0.000582390770105396</v>
       </c>
       <c r="E93">
-        <v>0.0176179757220251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.03908710427496333</v>
+      </c>
+      <c r="F93">
+        <v>0.038599110788105</v>
+      </c>
+      <c r="G93">
+        <v>-0.0515567404214263</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2797469471205054</v>
+        <v>-0.3400279383998203</v>
       </c>
       <c r="C94">
-        <v>0.1323393426073259</v>
+        <v>0.1867746324148025</v>
       </c>
       <c r="D94">
-        <v>0.07996901239772784</v>
+        <v>0.3991753225952331</v>
       </c>
       <c r="E94">
-        <v>-0.06431710531430881</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.3512201097106913</v>
+      </c>
+      <c r="F94">
+        <v>-0.09214184279633779</v>
+      </c>
+      <c r="G94">
+        <v>0.4221521874948701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08229148522006031</v>
+        <v>-0.08122018419059086</v>
       </c>
       <c r="C95">
-        <v>0.08205249237778177</v>
+        <v>0.08444980841676422</v>
       </c>
       <c r="D95">
-        <v>-0.07759977146322006</v>
+        <v>-0.1408152171217966</v>
       </c>
       <c r="E95">
-        <v>0.02961471801167827</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.157954136382903</v>
+      </c>
+      <c r="F95">
+        <v>0.02855991090675831</v>
+      </c>
+      <c r="G95">
+        <v>0.09391849952489434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2116264174891365</v>
+        <v>-0.1962720076890852</v>
       </c>
       <c r="C98">
-        <v>0.0304054937492194</v>
+        <v>0.04135969512263705</v>
       </c>
       <c r="D98">
-        <v>-0.03648343349051735</v>
+        <v>-0.1315459227881407</v>
       </c>
       <c r="E98">
-        <v>-0.01591708169446134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1835270736965198</v>
+      </c>
+      <c r="F98">
+        <v>-0.09011797258675423</v>
+      </c>
+      <c r="G98">
+        <v>0.00623063557238527</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01148422514786434</v>
+        <v>-0.00779323680136993</v>
       </c>
       <c r="C101">
-        <v>0.02045294916301084</v>
+        <v>0.02313485127990263</v>
       </c>
       <c r="D101">
-        <v>0.01031627400665438</v>
+        <v>-0.01579225190842665</v>
       </c>
       <c r="E101">
-        <v>0.01063745401711549</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.008129863997479767</v>
+      </c>
+      <c r="F101">
+        <v>0.0594596958392016</v>
+      </c>
+      <c r="G101">
+        <v>-0.08518215407989595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.126443334014869</v>
+        <v>-0.1233076160851806</v>
       </c>
       <c r="C102">
-        <v>0.07115958739615319</v>
+        <v>0.09537111445646738</v>
       </c>
       <c r="D102">
-        <v>0.03690936153729051</v>
+        <v>0.05147600458764629</v>
       </c>
       <c r="E102">
-        <v>-0.0118390443589813</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.01453592444730197</v>
+      </c>
+      <c r="F102">
+        <v>-0.003594082198765326</v>
+      </c>
+      <c r="G102">
+        <v>-0.02816531417535338</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.01252565802837975</v>
+        <v>0.004020033157955205</v>
       </c>
       <c r="C104">
-        <v>0.02581568147567531</v>
+        <v>0.009202405554335378</v>
       </c>
       <c r="D104">
-        <v>-0.01337821843587618</v>
+        <v>-0.05574197811117267</v>
       </c>
       <c r="E104">
-        <v>0.967799734231949</v>
+        <v>0.0611557444190186</v>
+      </c>
+      <c r="F104">
+        <v>0.8222918772028621</v>
+      </c>
+      <c r="G104">
+        <v>0.4952244714033838</v>
       </c>
     </row>
   </sheetData>
